--- a/docs/PST1/PST1_03.09.2024_output.xlsx
+++ b/docs/PST1/PST1_03.09.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,3638 +505,4320 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731082104.026787</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731082104.2870605</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082104.026787.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082104.2870605.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>241.99</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>241.18</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.8100000000000023</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731082106.6668656</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731082107.3668962</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082106.6668656.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082107.3668962.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>247.98</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>246.8</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>1.179999999999978</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731082107.3865445</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731082107.7215602</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082107.3865445.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082107.7215602.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>246.8</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>247.15</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.3499999999999943</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731082107.7669573</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731082109.1168613</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082107.7669573.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082109.1168613.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>246.87</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>247.57</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.6999999999999886</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731082110.67211</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731082110.67211.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+          <t>./test_images/SBERP1731082110.67211.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>248.97</v>
       </c>
-      <c r="J7" t="n">
-        <v>248.97</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
+      <c r="L7" t="n">
+        <v>246.15</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-2.819999999999993</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-1.13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731082114.2534087</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731082114.4995239</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082114.2534087.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082114.4995239.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>241.99</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>241.18</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.8100000000000023</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731082116.7370932</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731082117.4033437</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082116.7370932.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082117.4033437.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>247.98</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>246.8</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>1.179999999999978</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731082117.4190052</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731082117.7349875</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082117.4190052.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082117.7349875.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>246.8</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>247.15</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.3499999999999943</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731082117.7858417</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731082119.0461097</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082117.7858417.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082119.0461097.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>246.87</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>247.57</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.6999999999999886</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731082120.5384588</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731082123.927629</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082120.5384588.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082123.927629.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>248.97</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>242.62</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-6.349999999999994</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-2.55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731082123.938919</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731082124.580686</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082123.938919.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082124.580686.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>242.62</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>244.99</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-2.370000000000005</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731082125.4427013</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731082127.0048995</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082125.4427013.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082127.0048995.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>246.77</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>247.28</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.5099999999999909</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731082127.0196085</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731082127.9247055</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082127.0196085.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082127.9247055.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>247.28</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>247.64</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.3599999999999852</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731082129.65294</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731082129.972522</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082129.65294.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082129.972522.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>247.95</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>248.67</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.7199999999999989</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731082130.2228236</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731082130.3060467</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082130.2228236.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082130.3060467.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>247.98</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>249.02</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>1.04000000000002</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731082135.4510686</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731082137.5177858</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082135.4510686.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082137.5177858.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>123.1</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>124.39</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-1.290000000000006</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-1.05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731082137.5276484</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731082138.3574543</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082137.5276484.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082138.3574543.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>124.39</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>124.45</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731082145.4538975</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731082145.5923204</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082145.4538975.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082145.5923204.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6106.5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6128</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>21.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731082147.065333</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731082147.2655432</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082147.065333.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082147.2655432.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6205.5</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6234</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>28.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731082147.87773</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731082148.927398</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082147.87773.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082148.927398.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6215</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6216.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>1.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731082153.1715755</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731082153.1715755.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+          <t>./test_images/LKOH1731082153.1715755.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6198.5</v>
       </c>
-      <c r="J23" t="n">
-        <v>6198.5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
+      <c r="L23" t="n">
+        <v>6179</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731082156.6656802</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731082157.1349165</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082156.6656802.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082157.1349165.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>456.7</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>460.1</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>3.400000000000034</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731082159.2994523</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731082159.9528832</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082159.2994523.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082159.9528832.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>465.25</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>464.85</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.3999999999999773</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731082162.1181965</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731082162.8075328</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082162.1181965.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082162.8075328.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>468.45</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>469.05</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731082163.6987863</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731082165.9735582</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082163.6987863.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082165.9735582.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>470.45</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>466.15</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-4.300000000000011</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.91</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731082167.6886237</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731082174.2605565</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082167.6886237.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082174.2605565.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>191.25</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>194.96</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-3.710000000000008</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-1.94</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731082174.275517</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731082175.210906</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082174.275517.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082175.210906.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>194.96</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>194.45</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.5100000000000193</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731082176.6493633</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731082176.6493633.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+          <t>./test_images/MOEX1731082176.6493633.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>192.01</v>
       </c>
-      <c r="J30" t="n">
-        <v>192.01</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
+      <c r="L30" t="n">
+        <v>192.31</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.3000000000000114</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731082179.7877107</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731082180.9853375</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082179.7877107.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082180.9853375.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>966.2</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>961.4</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-4.800000000000068</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731082182.2462535</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731082183.0139241</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082182.2462535.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082183.0139241.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>964.2</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>968.4</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>4.199999999999932</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731082184.984275</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731082186.9260721</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082184.984275.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082186.9260721.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>972</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>966.2</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-5.799999999999955</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731082188.1997604</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731082191.3234882</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082188.1997604.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082191.3234882.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>11.956</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>11.995</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.0389999999999997</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731082191.4129896</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731082191.4675689</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082191.4129896.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082191.4675689.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>11.987</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>11.984</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.003000000000000114</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731082191.519367</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731082191.838996</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082191.519367.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082191.838996.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>11.982</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>11.971</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.01099999999999923</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731082194.5877745</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731082195.9480124</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082194.5877745.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082195.9480124.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>12.044</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>12.049</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.004999999999999005</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731082199.0828695</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731082199.3429952</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731082199.0828695.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731082199.3429952.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>103.72</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>104</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731082202.0630753</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731082204.402751</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731082202.0630753.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731082204.402751.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>106.02</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>106.2</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731082205.637852</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731082206.181625</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731082205.637852.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731082206.181625.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>106.38</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>107.34</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.960000000000008</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731082207.765321</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731082207.955294</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731082207.765321.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731082207.955294.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>106.62</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>106.14</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.480000000000004</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731082212.0909684</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731082213.2455726</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082212.0909684.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082213.2455726.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>129.66</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>130.3</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.6400000000000148</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731082214.3836432</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731082215.3505204</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082214.3836432.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082215.3505204.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>130.36</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>130.3</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731082215.4004223</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731082215.50039</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082215.4004223.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082215.50039.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>129.92</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>130.56</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.6400000000000148</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731082216.0170932</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731082216.8802235</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082216.0170932.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082216.8802235.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>129.86</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>130.46</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.5999999999999943</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731082217.135442</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731082218.8957438</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082217.135442.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082218.8957438.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>130.02</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>128</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-2.02000000000001</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.55</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731082219.780472</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731082219.780472.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+          <t>./test_images/NLMK1731082219.780472.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>127.26</v>
       </c>
-      <c r="J47" t="n">
-        <v>127.26</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
+      <c r="L47" t="n">
+        <v>127.76</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731082220.55532</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731082223.1133149</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731082220.55532.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731082223.1133149.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>41.025</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>41.315</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.2899999999999991</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.7100000000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731082223.1289349</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731082223.761828</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731082223.1289349.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731082223.761828.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>41.315</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>41.475</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.1600000000000037</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731082227.8002026</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731082227.8002026.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+          <t>./test_images/MAGN1731082227.8002026.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>41.295</v>
       </c>
-      <c r="J50" t="n">
-        <v>41.295</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
+      <c r="L50" t="n">
+        <v>40.76</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.5350000000000037</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-1.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731082230.8819463</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731082231.2718048</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731082230.8819463.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731082231.2718048.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1153</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1158</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>5</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731082231.2868505</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731082235.5918176</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731082231.2868505.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731082235.5918176.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>1158</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>1202.4</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-44.40000000000009</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-3.83</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731082235.6068797</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731082236.8817844</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731082235.6068797.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731082236.8817844.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1202.4</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>1201.2</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-1.200000000000045</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731082242.826684</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731082243.3971117</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731082242.826684.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731082243.3971117.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>47.57</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>47.86</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.2899999999999991</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.61</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731082247.7855098</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731082248.1710224</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731082247.7855098.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731082248.1710224.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>48.39</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>48.58</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731082249.947084</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731082250.5440228</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731082249.947084.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731082250.5440228.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>48.53</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>48.12</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.4100000000000037</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.84</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731082252.6278186</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731082256.442724</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082252.6278186.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082256.442724.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>87.73999999999999</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-1</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-1.15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731082256.4583423</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731082257.709569</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082256.4583423.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082257.709569.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>87.73999999999999</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>87.95</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.210000000000008</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731082259.477137</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731082261.1543107</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082259.477137.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082261.1543107.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>88.47</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>87.66</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.8100000000000023</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.9199999999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731082262.9861321</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731082263.8657448</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SELG1731082262.9861321.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SELG1731082263.8657448.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>46.64</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>47.38</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.740000000000002</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-1.59</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731082263.881366</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731082264.1179893</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SELG1731082263.881366.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SELG1731082264.1179893.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>47.38</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>47.78</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.3999999999999986</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731082270.8265061</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731082270.8265061.png</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+          <t>./test_images/SELG1731082270.8265061.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>47.26</v>
       </c>
-      <c r="J62" t="n">
-        <v>47.26</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
+      <c r="L62" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-0.4600000000000009</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.97</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731082277.1645231</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731082278.2817254</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731082277.1645231.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731082278.2817254.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>139.2</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>139.9</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.7000000000000171</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731082279.8697333</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731082279.8697333.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+          <t>./test_images/SOFL1731082279.8697333.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>139.4</v>
       </c>
-      <c r="J64" t="n">
-        <v>139.4</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
+      <c r="L64" t="n">
+        <v>138.84</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.5600000000000023</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731082283.6064079</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731082285.7133303</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731082283.6064079.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731082285.7133303.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>0.2752</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>0.279</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.003800000000000026</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-1.38</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731082285.7289507</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731082287.9460359</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731082285.7289507.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731082287.9460359.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>0.279</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>0.2801</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.00109999999999999</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731082290.05184</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731082290.05184.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+          <t>./test_images/MRKP1731082290.05184.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>0.2799</v>
       </c>
-      <c r="J67" t="n">
-        <v>0.2799</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
+      <c r="L67" t="n">
+        <v>0.2766</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.00329999999999997</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-1.18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731082292.1582038</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731082298.743527</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731082292.1582038.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731082298.743527.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>15.101</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>15.388</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.286999999999999</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-1.9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731082298.751297</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731082298.8848438</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731082298.751297.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731082298.8848438.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>15.388</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>15.449</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.06099999999999994</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731082299.63346</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731082299.63346.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+          <t>./test_images/AFKS1731082299.63346.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>15.281</v>
       </c>
-      <c r="J70" t="n">
-        <v>15.281</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
+      <c r="L70" t="n">
+        <v>15.113</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-0.168000000000001</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-1.1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731082304.323391</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731082305.1157477</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731082304.323391.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731082305.1157477.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>648.25</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>651.45</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>3.200000000000045</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731082307.3633566</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731082309.247978</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731082307.3633566.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731082309.247978.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>651.85</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>652.75</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.8999999999999773</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731082310.694408</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731082311.0854027</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731082310.694408.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731082311.0854027.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>652.4</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>652.35</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.04999999999995453</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731082311.1322682</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731082311.9958029</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731082311.1322682.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731082311.9958029.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>652.55</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>651.55</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-1</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731082315.6943512</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731082317.1010478</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731082315.6943512.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731082317.1010478.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>114.4</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>113.83</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-0.5700000000000074</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731082320.383158</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731082321.5422573</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731082320.383158.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731082321.5422573.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>114.37</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>114.07</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-0.3000000000000114</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731082323.4222827</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731082323.4222827.png</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+          <t>./test_images/MTLR1731082323.4222827.png</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>112.7</v>
       </c>
-      <c r="J77" t="n">
-        <v>112.7</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
+      <c r="L77" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="M77" t="n">
+        <v>-0.1000000000000085</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.09</v>
       </c>
     </row>
   </sheetData>
@@ -4135,7 +4832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4159,6 +4856,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4172,6 +4884,15 @@
       <c r="C2" t="n">
         <v>10</v>
       </c>
+      <c r="D2" t="n">
+        <v>-0.4070000000000021</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.16</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4180,11 +4901,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1999999999999886</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.0500000000000019</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2299999999999998</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -4193,11 +4923,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.039999999999964</v>
+        <v>0.2199999999999704</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.04399999999999409</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4211,6 +4950,15 @@
       <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.00749999999999984</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4224,6 +4972,15 @@
       <c r="C6" t="n">
         <v>4</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.7625000000000171</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4237,6 +4994,15 @@
       <c r="C7" t="n">
         <v>4</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.235000000000003</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4245,11 +5011,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51.5</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
+      <c r="D8" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4263,6 +5038,15 @@
       <c r="C9" t="n">
         <v>4</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.1749999999999829</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4271,11 +5055,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2259999999999991</v>
+        <v>-0.3940000000000001</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
+      <c r="D10" t="n">
+        <v>-0.1313333333333334</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.87</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4289,6 +5082,15 @@
       <c r="C11" t="n">
         <v>3</v>
       </c>
+      <c r="D11" t="n">
+        <v>-2.133333333333364</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.6599999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.22</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4302,6 +5104,15 @@
       <c r="C12" t="n">
         <v>3</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.5333333333333314</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1.83</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.61</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4310,11 +5121,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.3400000000000034</v>
+        <v>-0.8000000000000043</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
+      <c r="D13" t="n">
+        <v>-0.2666666666666681</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.57</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4323,11 +5143,20 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.8700000000000188</v>
+        <v>-0.9700000000000273</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.3233333333333424</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.28</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -4341,6 +5170,15 @@
       <c r="C15" t="n">
         <v>3</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.02333333333333106</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1599999999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4349,11 +5187,20 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.002700000000000036</v>
+        <v>-0.006000000000000005</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.002000000000000002</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-2.17</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.72</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4362,11 +5209,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4.220000000000027</v>
+        <v>-3.920000000000016</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
+      <c r="D17" t="n">
+        <v>-1.306666666666672</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-2.04</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.68</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4375,11 +5231,20 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1299999999999955</v>
+        <v>-0.6649999999999991</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
+      <c r="D18" t="n">
+        <v>-0.2216666666666664</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.54</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -4393,6 +5258,15 @@
       <c r="C19" t="n">
         <v>3</v>
       </c>
+      <c r="D19" t="n">
+        <v>-13.53333333333338</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-1.17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -4406,6 +5280,15 @@
       <c r="C20" t="n">
         <v>2</v>
       </c>
+      <c r="D20" t="n">
+        <v>-0.615000000000002</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4414,11 +5297,20 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7000000000000171</v>
+        <v>0.1400000000000148</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
+      <c r="D21" t="n">
+        <v>0.07000000000000739</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4432,6 +5324,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
